--- a/desguace/UTI.xlsx
+++ b/desguace/UTI.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA34"/>
+  <dimension ref="A1:AA65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,45 +577,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1205</v>
+        <v>1084</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHATA SARIMON (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GO/17</t>
+          <t>AS/42</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GO/17-221-TI</t>
+          <t>AS/42-121-PI-TI</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5004991</t>
+          <t>5003829</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TRABAJOS INICIALES</t>
+          <t>TRABAJOS INTERNOS</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EXPEDIENTES PARA AUTORIZACIÓN DE DESGUAC</t>
+          <t>Serv Alquiler de grúa - AURORA</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3950</v>
+        <v>4500</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -623,44 +623,44 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>36133</v>
+        <v>2044540177</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>GAPASH CONSULTORIA INTEGRAL EIRL</t>
+          <t>EMPRESA DE TRANSPORTES AURORA EIRL</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30007372</v>
+        <v>30006085</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>44526</v>
+        <v>44330</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>44526</v>
+        <v>44330</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>44526</v>
+        <v>44488</v>
       </c>
       <c r="Q2" t="n">
-        <v>5010079653</v>
+        <v>5010074959</v>
       </c>
       <c r="R2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="S2" t="n">
-        <v>1000728460</v>
+        <v>1000700201</v>
       </c>
       <c r="T2" s="3" t="n">
-        <v>44526</v>
+        <v>44488</v>
       </c>
       <c r="U2" s="3" t="n">
-        <v>44526</v>
+        <v>44488</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
-        <v>5105712902</v>
+        <v>5105701273</v>
       </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
@@ -676,27 +676,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHATA SARIMON (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GO/17</t>
+          <t>AS/42</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GO/17-221-TI</t>
+          <t>AS/42-121-PI-TI</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5004991</t>
+          <t>5003829</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TRABAJOS INICIALES</t>
+          <t>TRABAJOS INTERNOS</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ESTADIA</t>
+          <t>VARADA</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -721,10 +721,10 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" s="3" t="n">
-        <v>44522</v>
+        <v>44383</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>44561</v>
+        <v>44412</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -733,10 +733,10 @@
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" s="3" t="n">
-        <v>44522</v>
+        <v>44301</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>44525</v>
+        <v>44323</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
@@ -751,90 +751,82 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHATA SARIMON (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GO/17</t>
+          <t>AS/42</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GO/17-221-SD</t>
+          <t>AS/42-121-PI-TI</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5005100</t>
+          <t>5003829</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>DESMONTAJE DE EQUIPOS</t>
+          <t>TRABAJOS INTERNOS</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desmontaje de Equipos Activos</t>
+          <t>EXPEDIENTES PARA AUTORIZACIÓN DE DESGUAC</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>4324</v>
+        <v>3950</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K4" t="n">
-        <v>2051449525</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>GARCIA Y ASOCIADOS NAVALES S.R.L.</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>30007441</v>
+        <v>30006085</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>44571</v>
+        <v>44330</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>44571</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>44575</v>
-      </c>
+        <v>44330</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>5010084134</v>
+        <v>5010055264</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S4" t="n">
-        <v>1000774026</v>
+        <v>1000651141</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>44552</v>
+        <v>44312</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>44552</v>
+        <v>44323</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>5105724785</v>
+        <v>5105646841</v>
       </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
@@ -846,91 +838,75 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>548</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHATA SARIMON (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GO/17</t>
+          <t>AS/42</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GO/17-221-SD</t>
+          <t>AS/42-121-PI-TI</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5006425</t>
+          <t>5003829</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>LIMPIEZA E HIDROLVADO</t>
+          <t>TRABAJOS INTERNOS</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0040</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Limpieza Casco OV 118 m² (Rasqueteo)</t>
+          <t>SERVICIO DE GRUA</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K5" t="n">
-        <v>2040319042</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>SERVICIOS METAL MECANICA ARENADO Y</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>30008828</v>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" s="3" t="n">
-        <v>44658</v>
+        <v>44330</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>44658</v>
-      </c>
-      <c r="P5" s="3" t="n">
-        <v>44670</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5010095117</v>
-      </c>
+        <v>44330</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>70</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1000890246</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" s="3" t="n">
-        <v>44658</v>
+        <v>44488</v>
       </c>
       <c r="U5" s="3" t="n">
-        <v>44658</v>
+        <v>44488</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="n">
-        <v>5105757794</v>
-      </c>
+      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
@@ -941,97 +917,77 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CHATA SARIMON (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GO/17</t>
+          <t>AS/42</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>GO/17-221-SD</t>
+          <t>AS/42-121-PI-TI</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5006600</t>
+          <t>5003829</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>TRABAJOS INTERNOS</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0060</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desguace de CHATA en módulos</t>
+          <t>EVAC. RESIDUOS SOLIDOS PELIGROSOS</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>13070</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K6" t="n">
-        <v>2051449525</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>GARCIA Y ASOCIADOS NAVALES S.R.L.</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>30009003</v>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" s="3" t="n">
-        <v>44683</v>
+        <v>44518</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>44687</v>
-      </c>
-      <c r="P6" s="3" t="n">
-        <v>44690</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5010096344</v>
-      </c>
+        <v>44518</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>40</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1000888339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" s="3" t="n">
-        <v>44683</v>
+        <v>44518</v>
       </c>
       <c r="U6" s="3" t="n">
-        <v>44683</v>
+        <v>44518</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
-        <v>5105756356</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>4702.212</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>4562.6</v>
-      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr">
         <is>
           <t>CASCO</t>
@@ -1040,31 +996,31 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHATA SARIMON (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GO/17</t>
+          <t>AS/42</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GO/17-221-SD</t>
+          <t>AS/42-121-PI-AP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5006628</t>
+          <t>5004236</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>LIMPIEZA Y ALBAÑILERIA</t>
+          <t>ARENADO</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1074,11 +1030,11 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Remoción de Concreto de Pisos de Cocina</t>
+          <t>Limpieza 201 m² de casco OV (rasqueteo)</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>546</v>
+        <v>301.5</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -1086,44 +1042,44 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>2060671352</v>
+        <v>2051778677</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>MULTISERVICIOS KALEB S.A.C.</t>
+          <t>MANNA S.A.C.</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30009067</v>
+        <v>30006445</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>44691</v>
+        <v>44330</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>44691</v>
+        <v>44334</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>44694</v>
+        <v>44396</v>
       </c>
       <c r="Q7" t="n">
-        <v>5010097922</v>
+        <v>5010067639</v>
       </c>
       <c r="R7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S7" t="n">
-        <v>1000899821</v>
+        <v>1000639162</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>44691</v>
+        <v>44385</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>44694</v>
+        <v>44385</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>5105760220</v>
+        <v>5105640294</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
@@ -1135,45 +1091,45 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>641</v>
+        <v>941</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHATA SARIMON (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GO/17</t>
+          <t>AS/42</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GO/17-221-SD</t>
+          <t>AS/42-121-PI-CA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5006628</t>
+          <t>5004237</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>LIMPIEZA Y ALBAÑILERIA</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Limpieza de residuos Oleosos Petróleo</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>210</v>
+        <v>18000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1181,80 +1137,84 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>2060671352</v>
+        <v>2053175686</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>MULTISERVICIOS KALEB S.A.C.</t>
+          <t>SERVICIOS NAVALES J &amp; C E.I.R.L.</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30009067</v>
+        <v>30006444</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>44691</v>
+        <v>44459</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>44691</v>
+        <v>44459</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>44694</v>
+        <v>44463</v>
       </c>
       <c r="Q8" t="n">
-        <v>5010097922</v>
+        <v>5010073897</v>
       </c>
       <c r="R8" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S8" t="n">
-        <v>1000899822</v>
+        <v>1000700816</v>
       </c>
       <c r="T8" s="3" t="n">
-        <v>44691</v>
+        <v>44385</v>
       </c>
       <c r="U8" s="3" t="n">
-        <v>44694</v>
+        <v>44385</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>5105760220</v>
-      </c>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
+        <v>5105671428</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>7982.709000000001</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>7588.4</v>
+      </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1206</v>
+        <v>1003</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHATA GAVIOTA (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GO/18</t>
+          <t>AS/42</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GO/18-221-TI</t>
+          <t>AS/42-121-PI-LI</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5004993</t>
+          <t>5004238</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>TRABAJOS INICIALES</t>
+          <t>LIMPIEZA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1264,11 +1224,11 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>EXPEDIENTES PARA AUTORIZACIÓN DE DESGUAC</t>
+          <t>Limp Túnel de propulsión</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3950</v>
+        <v>504</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1276,44 +1236,44 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>36133</v>
+        <v>2044562634</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>GAPASH CONSULTORIA INTEGRAL EIRL</t>
+          <t>PBK SERVICIOS GENERALES E.I.R.L.</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30007373</v>
+        <v>30006443</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>44526</v>
+        <v>44392</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>44526</v>
+        <v>44480</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>44526</v>
+        <v>44481</v>
       </c>
       <c r="Q9" t="n">
-        <v>5010079653</v>
+        <v>5010074207</v>
       </c>
       <c r="R9" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="S9" t="n">
-        <v>1000728461</v>
+        <v>1000690499</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>44526</v>
+        <v>44385</v>
       </c>
       <c r="U9" s="3" t="n">
-        <v>44526</v>
+        <v>44385</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>5105712903</v>
+        <v>5105666539</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
@@ -1325,77 +1285,97 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHATA GAVIOTA (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GO/18</t>
+          <t>AS/42</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GO/18-221-TI</t>
+          <t>AS/42-121-PI-LI</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5004993</t>
+          <t>5004238</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TRABAJOS INICIALES</t>
+          <t>LIMPIEZA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ESTADIA</t>
+          <t>Limp Pique proa</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>2044562634</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>PBK SERVICIOS GENERALES E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>30006443</v>
+      </c>
       <c r="N10" s="3" t="n">
-        <v>44522</v>
+        <v>44392</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>44522</v>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+        <v>44480</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>44481</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5010074207</v>
+      </c>
       <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
+        <v>70</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1000690500</v>
+      </c>
       <c r="T10" s="3" t="n">
-        <v>44522</v>
+        <v>44392</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>44522</v>
+        <v>44392</v>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>5105666539</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>5.96</v>
+      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>CASCO</t>
@@ -1404,45 +1384,45 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>15</v>
+        <v>1003</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHATA GAVIOTA (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GO/18</t>
+          <t>AS/42</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GO/18-221-SD</t>
+          <t>AS/42-121-PI-LI</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5004994</t>
+          <t>5004238</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>DESMONTAJE DE EQUIPOS</t>
+          <t>LIMPIEZA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0040</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desmontaje de Equipos Activos</t>
+          <t>Limp Lazareto</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>4324</v>
+        <v>140</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1450,47 +1430,51 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>2044566087</v>
+        <v>2044562634</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>LARCAS S.R.L.</t>
+          <t>PBK SERVICIOS GENERALES E.I.R.L.</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30007380</v>
+        <v>30006443</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v>44571</v>
+        <v>44392</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>44571</v>
+        <v>44480</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>44575</v>
+        <v>44481</v>
       </c>
       <c r="Q11" t="n">
-        <v>5010084135</v>
+        <v>5010074207</v>
       </c>
       <c r="R11" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="S11" t="n">
-        <v>1000774150</v>
+        <v>1000690501</v>
       </c>
       <c r="T11" s="3" t="n">
-        <v>44552</v>
+        <v>44392</v>
       </c>
       <c r="U11" s="3" t="n">
-        <v>44552</v>
+        <v>44392</v>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
-        <v>5105724756</v>
-      </c>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
+        <v>5105666539</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8.08</v>
+      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>CASCO</t>
@@ -1499,45 +1483,45 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHATA GAVIOTA (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GO/18</t>
+          <t>AS/42</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GO/18-221-SD</t>
+          <t>AS/42-121-PI-LI</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5004994</t>
+          <t>5004238</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>DESMONTAJE DE EQUIPOS</t>
+          <t>LIMPIEZA</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desmontaje Paneles HMI</t>
+          <t>Limp Cubierta e interiores</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2500</v>
+        <v>336</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1545,37 +1529,45 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>2013616710</v>
+        <v>2044562634</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>ELECTRONICA NALWS EIRLTDA</t>
+          <t>PBK SERVICIOS GENERALES E.I.R.L.</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30007380</v>
+        <v>30006443</v>
       </c>
       <c r="N12" s="3" t="n">
-        <v>44522</v>
+        <v>44473</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>44522</v>
-      </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+        <v>44480</v>
+      </c>
+      <c r="P12" s="3" t="n">
+        <v>44481</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5010074207</v>
+      </c>
       <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1000690503</v>
+      </c>
       <c r="T12" s="3" t="n">
-        <v>44522</v>
+        <v>44480</v>
       </c>
       <c r="U12" s="3" t="n">
-        <v>44552</v>
+        <v>44480</v>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
+      <c r="X12" t="n">
+        <v>5105666539</v>
+      </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr">
@@ -1586,45 +1578,45 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>547</v>
+        <v>1003</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHATA GAVIOTA (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GO/18</t>
+          <t>AS/42</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GO/18-221-SD</t>
+          <t>AS/42-121-PI-LI</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5006424</t>
+          <t>5004238</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>LIMPIEZA E HIDROLVADO</t>
+          <t>LIMPIEZA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0060</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Limpieza Casco OV 130 m² (Rasqueteo)</t>
+          <t>Tanques petróle SM</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>195</v>
+        <v>946</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1632,44 +1624,44 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>2051202333</v>
+        <v>2044562634</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>BELL SERVICE S.A.C.</t>
+          <t>PBK SERVICIOS GENERALES E.I.R.L.</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30008827</v>
+        <v>30006443</v>
       </c>
       <c r="N13" s="3" t="n">
-        <v>44658</v>
+        <v>44473</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>44658</v>
+        <v>44480</v>
       </c>
       <c r="P13" s="3" t="n">
-        <v>44670</v>
+        <v>44481</v>
       </c>
       <c r="Q13" t="n">
-        <v>5010095010</v>
+        <v>5010074207</v>
       </c>
       <c r="R13" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="S13" t="n">
-        <v>1000877929</v>
+        <v>1000690504</v>
       </c>
       <c r="T13" s="3" t="n">
-        <v>44658</v>
+        <v>44480</v>
       </c>
       <c r="U13" s="3" t="n">
-        <v>44658</v>
+        <v>44480</v>
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="n">
-        <v>5105756439</v>
+        <v>5105666539</v>
       </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
@@ -1681,45 +1673,45 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>624</v>
+        <v>1003</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHATA GAVIOTA (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GO/18</t>
+          <t>AS/42</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GO/18-221-SD</t>
+          <t>AS/42-121-PI-LI</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5006548</t>
+          <t>5004238</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TUBERIAS</t>
+          <t>LIMPIEZA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0070</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desmontaje 02 Manifold Achique</t>
+          <t>Tanque aceite hidraúlico</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>720</v>
+        <v>414</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1727,44 +1719,44 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>2054173296</v>
+        <v>2044562634</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>SERVICIOS NAVALES PAREDES E.I.R.L.</t>
+          <t>PBK SERVICIOS GENERALES E.I.R.L.</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30008879</v>
+        <v>30006443</v>
       </c>
       <c r="N14" s="3" t="n">
-        <v>44522</v>
+        <v>44473</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>44522</v>
+        <v>44480</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>44684</v>
+        <v>44481</v>
       </c>
       <c r="Q14" t="n">
-        <v>5010096360</v>
+        <v>5010074207</v>
       </c>
       <c r="R14" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="S14" t="n">
-        <v>1000890213</v>
+        <v>1000690505</v>
       </c>
       <c r="T14" s="3" t="n">
-        <v>44673</v>
+        <v>44480</v>
       </c>
       <c r="U14" s="3" t="n">
-        <v>44674</v>
+        <v>44480</v>
       </c>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="n">
-        <v>5105758892</v>
+        <v>5105666551</v>
       </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
@@ -1776,45 +1768,45 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>624</v>
+        <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHATA GAVIOTA (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GO/18</t>
+          <t>AS/42</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GO/18-221-SD</t>
+          <t>AS/42-121-PI-LI</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5006548</t>
+          <t>5004238</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TUBERIAS</t>
+          <t>LIMPIEZA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Achiq/Manif: 12 Válv Comp Ø 2"</t>
+          <t>Limp Sentina sala de máquinas</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>612.9</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1822,47 +1814,43 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>2054173296</v>
+        <v>2044562634</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>SERVICIOS NAVALES PAREDES E.I.R.L.</t>
+          <t>PBK SERVICIOS GENERALES E.I.R.L.</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30008879</v>
+        <v>30006443</v>
       </c>
       <c r="N15" s="3" t="n">
-        <v>44683</v>
+        <v>44330</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>44687</v>
-      </c>
-      <c r="P15" s="3" t="n">
-        <v>44684</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5010096360</v>
-      </c>
+        <v>44330</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>200</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1000890215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" s="3" t="n">
-        <v>44683</v>
+        <v>44385</v>
       </c>
       <c r="U15" s="3" t="n">
-        <v>44683</v>
+        <v>44385</v>
       </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
-      <c r="X15" t="n">
-        <v>5105758892</v>
-      </c>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>20</v>
+      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>CASCO</t>
@@ -1871,45 +1859,45 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>624</v>
+        <v>981</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHATA GAVIOTA (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GO/18</t>
+          <t>AS/42</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GO/18-221-SD</t>
+          <t>AS/42-121-PI-AL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5006548</t>
+          <t>5004817</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TUBERIAS</t>
+          <t>ALBAÑILERIA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Achiq/Manif: 02 Válv Comp Ø 3"</t>
+          <t>Demolición 8 m3 concreto bodegas/caseta</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>122.55</v>
+        <v>4200</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1917,44 +1905,44 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>2054173296</v>
+        <v>2044562634</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>SERVICIOS NAVALES PAREDES E.I.R.L.</t>
+          <t>PBK SERVICIOS GENERALES E.I.R.L.</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30008879</v>
+        <v>30007079</v>
       </c>
       <c r="N16" s="3" t="n">
-        <v>44683</v>
+        <v>44473</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>44687</v>
+        <v>44473</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>44684</v>
+        <v>44474</v>
       </c>
       <c r="Q16" t="n">
-        <v>5010096360</v>
+        <v>5010074207</v>
       </c>
       <c r="R16" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="S16" t="n">
-        <v>1000890216</v>
+        <v>1000690588</v>
       </c>
       <c r="T16" s="3" t="n">
-        <v>44683</v>
+        <v>44473</v>
       </c>
       <c r="U16" s="3" t="n">
-        <v>44683</v>
+        <v>44473</v>
       </c>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="n">
-        <v>5105758892</v>
+        <v>5105666558</v>
       </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
@@ -1966,31 +1954,31 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>633</v>
+        <v>1049</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHATA GAVIOTA (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GO/18</t>
+          <t>AS/42</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>GO/18-221-SD</t>
+          <t>AS/42-121-PI-MO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5006601</t>
+          <t>5004841</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>PROPULSION/GOBIERNO/MOTOR</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2000,11 +1988,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desguace de CHATA en módulos</t>
+          <t>Desm Sist Propulsión - SP 06</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>10730</v>
+        <v>1904</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -2012,80 +2000,80 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>2044566087</v>
+        <v>2060206775</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>LARCAS S.R.L.</t>
+          <t>SERVICIOS MARPERU E.I.R.L.</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30009004</v>
+        <v>30007213</v>
       </c>
       <c r="N17" s="3" t="n">
-        <v>44522</v>
+        <v>44473</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>44526</v>
+        <v>44485</v>
       </c>
       <c r="P17" s="3" t="n">
-        <v>44690</v>
+        <v>44487</v>
       </c>
       <c r="Q17" t="n">
-        <v>5010096345</v>
+        <v>5010074970</v>
       </c>
       <c r="R17" t="n">
-        <v>490</v>
+        <v>10</v>
       </c>
       <c r="S17" t="n">
-        <v>1000890023</v>
+        <v>1000700209</v>
       </c>
       <c r="T17" s="3" t="n">
-        <v>44683</v>
+        <v>44485</v>
       </c>
       <c r="U17" s="3" t="n">
-        <v>44683</v>
+        <v>44485</v>
       </c>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="n">
-        <v>5105757128</v>
+        <v>5105671036</v>
       </c>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1135</v>
+        <v>1049</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GO/30</t>
+          <t>AS/42</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GO/30-221-TI</t>
+          <t>AS/42-121-PI-MO</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5007785</t>
+          <t>5004841</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>TRABAJOS INICIALES</t>
+          <t>PROPULSION/GOBIERNO/MOTOR</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2095,11 +2083,11 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>EXPEDIENTES PARA AUTORIZACIÓN DE DESGUAC</t>
+          <t>Desm Sist Gobierno - SP 06</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>4200</v>
+        <v>306</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -2107,124 +2095,140 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>36133</v>
+        <v>2060206775</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>GAPASH CONSULTORIA INTEGRAL EIRL</t>
+          <t>SERVICIOS MARPERU E.I.R.L.</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30010241</v>
+        <v>30007213</v>
       </c>
       <c r="N18" s="3" t="n">
-        <v>44854</v>
+        <v>44473</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>44860</v>
+        <v>44485</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>44861</v>
+        <v>44487</v>
       </c>
       <c r="Q18" t="n">
-        <v>5010115646</v>
+        <v>5010074970</v>
       </c>
       <c r="R18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S18" t="n">
-        <v>1001080528</v>
+        <v>1000700210</v>
       </c>
       <c r="T18" s="3" t="n">
-        <v>44854</v>
+        <v>44485</v>
       </c>
       <c r="U18" s="3" t="n">
-        <v>44861</v>
+        <v>44485</v>
       </c>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="n">
-        <v>5105610380</v>
+        <v>5105671036</v>
       </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1074</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 9</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GO/30</t>
+          <t>AS/43</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GO/30-221-TI</t>
+          <t>AS/43-121-PI-TI</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5007785</t>
+          <t>5003830</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>TRABAJOS INICIALES</t>
+          <t>TRABAJOS INTERNOS</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ESTADIA</t>
+          <t>Serv Alquiler de grúa - AURORA</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5250</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>2044540177</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>EMPRESA DE TRANSPORTES AURORA EIRL</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>30006086</v>
+      </c>
       <c r="N19" s="3" t="n">
-        <v>44882</v>
+        <v>44330</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>44882</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
+        <v>44330</v>
+      </c>
+      <c r="P19" s="3" t="n">
+        <v>44488</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5010074959</v>
+      </c>
       <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1000700193</v>
+      </c>
       <c r="T19" s="3" t="n">
-        <v>44854</v>
+        <v>44488</v>
       </c>
       <c r="U19" s="3" t="n">
-        <v>44894</v>
+        <v>44488</v>
       </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
+      <c r="X19" t="n">
+        <v>5105701273</v>
+      </c>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr">
@@ -2235,31 +2239,31 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 9</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GO/30</t>
+          <t>AS/43</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>GO/30-221-SD</t>
+          <t>AS/43-121-PI-TI</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5012195</t>
+          <t>5003830</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>TRABAJOS INTERNOS</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2269,63 +2273,43 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desguace de CHATA</t>
+          <t>VARADA</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>20800</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K20" t="n">
-        <v>2053201679</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>MULTISERVICIOS KYP S.A.C.</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>30014791</v>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" s="3" t="n">
-        <v>45469</v>
+        <v>44386</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>45498</v>
-      </c>
-      <c r="P20" s="3" t="n">
-        <v>45498</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5010181011</v>
-      </c>
+        <v>44415</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>10</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1001880770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" s="3" t="n">
-        <v>45468</v>
+        <v>44301</v>
       </c>
       <c r="U20" s="3" t="n">
-        <v>45468</v>
+        <v>44323</v>
       </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
-      <c r="X20" t="n">
-        <v>5105634461</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>6691.49</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>6591.74</v>
-      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr">
         <is>
           <t>CASCO</t>
@@ -2334,97 +2318,85 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 9</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GO/30</t>
+          <t>AS/43</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>GO/30-221-SD</t>
+          <t>AS/43-121-PI-TI</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5012196</t>
+          <t>5003830</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>DESMONTAJE DE EQUIPOS</t>
+          <t>TRABAJOS INTERNOS</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desmontaje de equipos activos</t>
+          <t>EXPEDIENTES PARA AUTORIZACIÓN DE DESGUAC</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3200</v>
+        <v>3950</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K21" t="n">
-        <v>2053201679</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>MULTISERVICIOS KYP S.A.C.</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>30014792</v>
+        <v>30006086</v>
       </c>
       <c r="N21" s="3" t="n">
-        <v>45469</v>
+        <v>44330</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>45498</v>
-      </c>
-      <c r="P21" s="3" t="n">
-        <v>45498</v>
-      </c>
+        <v>44330</v>
+      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="n">
-        <v>5060065203</v>
+        <v>5010055264</v>
       </c>
       <c r="R21" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="S21" t="n">
-        <v>1001880771</v>
+        <v>1000651143</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>45468</v>
+        <v>44312</v>
       </c>
       <c r="U21" s="3" t="n">
-        <v>45468</v>
+        <v>44323</v>
       </c>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="n">
-        <v>5105634907</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>136.96</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>137.22</v>
-      </c>
+        <v>5105646839</v>
+      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr">
         <is>
           <t>CASCO</t>
@@ -2433,91 +2405,75 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>882</v>
+        <v>0</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GO/30</t>
+          <t>AS/43</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>GO/30-221-SD</t>
+          <t>AS/43-121-PI-TI</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5012197</t>
+          <t>5003830</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>LIMPIEZA EHIDROLAVADO</t>
+          <t>TRABAJOS INTERNOS</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0040</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Limpieza de Fondo (Rasqueteo) - 205 m2</t>
+          <t>SERVICIO DE GRUA</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K22" t="n">
-        <v>2040319042</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>SERVICIOS METAL MECANICA ARENADO Y</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>30014793</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" s="3" t="n">
-        <v>44883</v>
+        <v>44330</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>44883</v>
-      </c>
-      <c r="P22" s="3" t="n">
-        <v>45483</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5060065044</v>
-      </c>
+        <v>44330</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>10</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1001871495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" s="3" t="n">
-        <v>45468</v>
+        <v>44488</v>
       </c>
       <c r="U22" s="3" t="n">
-        <v>45468</v>
+        <v>44488</v>
       </c>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
-      <c r="X22" t="n">
-        <v>5105617715</v>
-      </c>
+      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr">
@@ -2528,91 +2484,75 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>882</v>
+        <v>0</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 9</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GO/30</t>
+          <t>AS/43</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>GO/30-221-SD</t>
+          <t>AS/43-121-PI-TI</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5012197</t>
+          <t>5003830</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>LIMPIEZA EHIDROLAVADO</t>
+          <t>TRABAJOS INTERNOS</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0060</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Hidrolavado de O.Viva - 205 m2</t>
+          <t>EVAC. RESIDUOS SOLIDOS PELIGROSOS</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>471.5</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K23" t="n">
-        <v>2040319042</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>SERVICIOS METAL MECANICA ARENADO Y</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>30014793</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" s="3" t="n">
-        <v>44883</v>
+        <v>44518</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>44883</v>
-      </c>
-      <c r="P23" s="3" t="n">
-        <v>45483</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5060065044</v>
-      </c>
+        <v>44518</v>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>20</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1001871499</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" s="3" t="n">
-        <v>45483</v>
+        <v>44518</v>
       </c>
       <c r="U23" s="3" t="n">
-        <v>45483</v>
+        <v>44518</v>
       </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="n">
-        <v>5105617715</v>
-      </c>
+      <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr">
@@ -2623,45 +2563,45 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>921</v>
+        <v>645</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 9</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GO/30</t>
+          <t>AS/43</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>GO/30-221-SD</t>
+          <t>AS/43-121-PI-AP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5012198</t>
+          <t>5004258</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>LIMPIEZA</t>
+          <t>ARENADO</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Limp sala de bomba y sala de máquina</t>
+          <t>Limpieza 173 m² de casco OV (rasqueteo)</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>960.96</v>
+        <v>259.5</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2669,51 +2609,47 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>2060671352</v>
+        <v>2040319042</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>MULTISERVICIOS KALEB S.A.C.</t>
+          <t>SERVICIOS METAL MECANICA ARENADO Y</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30014794</v>
+        <v>30006482</v>
       </c>
       <c r="N24" s="3" t="n">
-        <v>45469</v>
+        <v>44330</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>45484</v>
+        <v>44334</v>
       </c>
       <c r="P24" s="3" t="n">
-        <v>45490</v>
+        <v>44396</v>
       </c>
       <c r="Q24" t="n">
-        <v>5010185136</v>
+        <v>5010068188</v>
       </c>
       <c r="R24" t="n">
         <v>10</v>
       </c>
       <c r="S24" t="n">
-        <v>1001940968</v>
+        <v>1000643968</v>
       </c>
       <c r="T24" s="3" t="n">
-        <v>45478</v>
+        <v>44392</v>
       </c>
       <c r="U24" s="3" t="n">
-        <v>45478</v>
+        <v>44393</v>
       </c>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="n">
-        <v>5105657061</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>52.40000000000001</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>52.40000000000001</v>
-      </c>
+        <v>5105643220</v>
+      </c>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr">
         <is>
           <t>CASCO</t>
@@ -2722,31 +2658,31 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 9</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GO/30</t>
+          <t>AS/43</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>GO/30-221-SD</t>
+          <t>AS/43-121-PI-CA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5012198</t>
+          <t>5004259</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>LIMPIEZA</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2756,92 +2692,110 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Limpieza interiores</t>
+          <t>Desguace de EP en módulos</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>2051449525</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>GARCIA Y ASOCIADOS NAVALES S.R.L.</t>
+        </is>
+      </c>
       <c r="M25" t="n">
-        <v>30014794</v>
+        <v>30006520</v>
       </c>
       <c r="N25" s="3" t="n">
-        <v>44883</v>
+        <v>44459</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>44883</v>
-      </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
+        <v>44459</v>
+      </c>
+      <c r="P25" s="3" t="n">
+        <v>44463</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5010073742</v>
+      </c>
       <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1000687617</v>
+      </c>
       <c r="T25" s="3" t="n">
-        <v>45468</v>
+        <v>44392</v>
       </c>
       <c r="U25" s="3" t="n">
-        <v>45468</v>
+        <v>44396</v>
       </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
+      <c r="X25" t="n">
+        <v>5105664950</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>5698.64</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>5399.67</v>
+      </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>974</v>
+        <v>1004</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 9</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GO/30</t>
+          <t>AS/43</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>GO/30-221-TI</t>
+          <t>AS/43-121-PI-LI</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5012336</t>
+          <t>5004260</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>LIMPIEZA</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0070</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Servicio de grúa - JHON DAVIS</t>
+          <t>Limp Sentina sala de máquinas</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>18425</v>
+        <v>610</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2849,47 +2803,51 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>2053203078</v>
+        <v>2044562634</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>TRANSGRUAS JHONDAVIS S.A.C.</t>
+          <t>PBK SERVICIOS GENERALES E.I.R.L.</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>30014932</v>
+        <v>30006491</v>
       </c>
       <c r="N26" s="3" t="n">
-        <v>45497</v>
+        <v>44392</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>45497</v>
+        <v>44480</v>
       </c>
       <c r="P26" s="3" t="n">
-        <v>45499</v>
+        <v>44481</v>
       </c>
       <c r="Q26" t="n">
-        <v>5010179393</v>
+        <v>5010074207</v>
       </c>
       <c r="R26" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="S26" t="n">
-        <v>1001868559</v>
+        <v>1000690506</v>
       </c>
       <c r="T26" s="3" t="n">
-        <v>45498</v>
+        <v>44392</v>
       </c>
       <c r="U26" s="3" t="n">
-        <v>45498</v>
+        <v>44392</v>
       </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="n">
-        <v>5105622454</v>
-      </c>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
+        <v>5105666551</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>CASCO</t>
@@ -2898,45 +2856,45 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>963</v>
+        <v>1004</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GO/30</t>
+          <t>AS/43</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>GO/30-221-TI</t>
+          <t>AS/43-121-PI-LI</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5012336</t>
+          <t>5004260</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>LIMPIEZA</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Limpieza de Carril - 17/07 al 20/07</t>
+          <t>Tanques petróle SM</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>171</v>
+        <v>946</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2944,44 +2902,44 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>2051778677</v>
+        <v>2044562634</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>MANNA S.A.C.</t>
+          <t>PBK SERVICIOS GENERALES E.I.R.L.</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>30014932</v>
+        <v>30006491</v>
       </c>
       <c r="N27" s="3" t="n">
-        <v>45497</v>
+        <v>44473</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>45497</v>
+        <v>44480</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>45498</v>
+        <v>44481</v>
       </c>
       <c r="Q27" t="n">
-        <v>5010179383</v>
+        <v>5010074207</v>
       </c>
       <c r="R27" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="S27" t="n">
-        <v>1001859050</v>
+        <v>1000690507</v>
       </c>
       <c r="T27" s="3" t="n">
-        <v>45497</v>
+        <v>44392</v>
       </c>
       <c r="U27" s="3" t="n">
-        <v>45497</v>
+        <v>44392</v>
       </c>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="n">
-        <v>5105618053</v>
+        <v>5105666551</v>
       </c>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
@@ -2993,31 +2951,31 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>957</v>
+        <v>1004</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 9</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>GO/30</t>
+          <t>AS/43</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>GO/30-221-TI</t>
+          <t>AS/43-121-PI-LI</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5012336</t>
+          <t>5004260</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>LIMPIEZA</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -3027,11 +2985,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Limpieza de Carril - 08/07 al 13/07</t>
+          <t>Limp Cubierta e interiores</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -3039,44 +2997,44 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>2060671352</v>
+        <v>2044562634</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>MULTISERVICIOS KALEB S.A.C.</t>
+          <t>PBK SERVICIOS GENERALES E.I.R.L.</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>30014932</v>
+        <v>30006491</v>
       </c>
       <c r="N28" s="3" t="n">
-        <v>45492</v>
+        <v>44473</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>45492</v>
+        <v>44480</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>45498</v>
+        <v>44481</v>
       </c>
       <c r="Q28" t="n">
-        <v>5010180428</v>
+        <v>5010074207</v>
       </c>
       <c r="R28" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="S28" t="n">
-        <v>1001872511</v>
+        <v>1000690508</v>
       </c>
       <c r="T28" s="3" t="n">
-        <v>45492</v>
+        <v>44480</v>
       </c>
       <c r="U28" s="3" t="n">
-        <v>45492</v>
+        <v>44480</v>
       </c>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="n">
-        <v>5105642149</v>
+        <v>5105666551</v>
       </c>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
@@ -3088,31 +3046,31 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>957</v>
+        <v>1004</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 9</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GO/30</t>
+          <t>AS/43</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>GO/30-221-TI</t>
+          <t>AS/43-121-PI-LI</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5012336</t>
+          <t>5004260</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>LIMPIEZA</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -3122,11 +3080,11 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Limpieza de Carril - 15/07 al 20/07</t>
+          <t>Tanques aceite hidraúlico</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>342</v>
+        <v>414</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -3134,44 +3092,44 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>2060671352</v>
+        <v>2044562634</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>MULTISERVICIOS KALEB S.A.C.</t>
+          <t>PBK SERVICIOS GENERALES E.I.R.L.</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30014932</v>
+        <v>30006491</v>
       </c>
       <c r="N29" s="3" t="n">
-        <v>45497</v>
+        <v>44473</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>45497</v>
+        <v>44480</v>
       </c>
       <c r="P29" s="3" t="n">
-        <v>45498</v>
+        <v>44481</v>
       </c>
       <c r="Q29" t="n">
-        <v>5010180428</v>
+        <v>5010074207</v>
       </c>
       <c r="R29" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="S29" t="n">
-        <v>1001872512</v>
+        <v>1000690509</v>
       </c>
       <c r="T29" s="3" t="n">
-        <v>45497</v>
+        <v>44480</v>
       </c>
       <c r="U29" s="3" t="n">
-        <v>45497</v>
+        <v>44480</v>
       </c>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="n">
-        <v>5105642149</v>
+        <v>5105666558</v>
       </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
@@ -3183,45 +3141,45 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>922</v>
+        <v>982</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 9</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GO/30</t>
+          <t>AS/43</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>GO/30-221-TI</t>
+          <t>AS/43-121-PI-AL</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5012336</t>
+          <t>5004818</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ALBAÑILERIA</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Limpieza de Carril - 01/07 al 06/07</t>
+          <t>Demolición 10 m3 concreto bodegas/caseta</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>370.5</v>
+        <v>4900</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -3229,44 +3187,44 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>2060671352</v>
+        <v>2044562634</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>MULTISERVICIOS KALEB S.A.C.</t>
+          <t>PBK SERVICIOS GENERALES E.I.R.L.</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30014932</v>
+        <v>30007150</v>
       </c>
       <c r="N30" s="3" t="n">
-        <v>45485</v>
+        <v>44469</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>45485</v>
+        <v>44473</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>45490</v>
+        <v>44474</v>
       </c>
       <c r="Q30" t="n">
-        <v>5010180428</v>
+        <v>5010074207</v>
       </c>
       <c r="R30" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="S30" t="n">
-        <v>1001872509</v>
+        <v>1000690589</v>
       </c>
       <c r="T30" s="3" t="n">
-        <v>45485</v>
+        <v>44473</v>
       </c>
       <c r="U30" s="3" t="n">
-        <v>45485</v>
+        <v>44473</v>
       </c>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="n">
-        <v>5105642149</v>
+        <v>5105666558</v>
       </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
@@ -3278,31 +3236,31 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>881</v>
+        <v>1050</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 9</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GO/30</t>
+          <t>AS/43</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>GO/30-221-TI</t>
+          <t>AS/43-121-PI-MO</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5012336</t>
+          <t>5004875</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>PROPULSION/GOBIERNO/MOTOR</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3312,11 +3270,11 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Limpieza de Carril - 25/06 al 28/06</t>
+          <t>Desm Sist Propulsión - SP 06</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>288</v>
+        <v>1904</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -3324,161 +3282,175 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>2060671352</v>
+        <v>2060206775</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>MULTISERVICIOS KALEB S.A.C.</t>
+          <t>SERVICIOS MARPERU E.I.R.L.</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>30014932</v>
+        <v>30007214</v>
       </c>
       <c r="N31" s="3" t="n">
-        <v>45477</v>
+        <v>44457</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>45477</v>
+        <v>44485</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>45483</v>
+        <v>44487</v>
       </c>
       <c r="Q31" t="n">
-        <v>5010179385</v>
+        <v>5010074970</v>
       </c>
       <c r="R31" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="S31" t="n">
-        <v>1001859056</v>
+        <v>1000700211</v>
       </c>
       <c r="T31" s="3" t="n">
-        <v>45477</v>
+        <v>44485</v>
       </c>
       <c r="U31" s="3" t="n">
-        <v>45483</v>
+        <v>44487</v>
       </c>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="n">
-        <v>5105642460</v>
+        <v>5105671036</v>
       </c>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>E/P. CAPRICORNIO 9</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GO/30</t>
+          <t>AS/43</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>GO/30-221-TI</t>
+          <t>AS/43-121-PI-MO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5012336</t>
+          <t>5004875</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>PROPULSION/GOBIERNO/MOTOR</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0060</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>SERVICIO DE GRUA</t>
+          <t>Desm Sist Gobierno - SP 06</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>2060206775</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>SERVICIOS MARPERU E.I.R.L.</t>
+        </is>
+      </c>
       <c r="M32" t="n">
-        <v>30014932</v>
+        <v>30007214</v>
       </c>
       <c r="N32" s="3" t="n">
-        <v>45498</v>
+        <v>44457</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>45498</v>
-      </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
+        <v>44485</v>
+      </c>
+      <c r="P32" s="3" t="n">
+        <v>44487</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5010074970</v>
+      </c>
       <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1000700212</v>
+      </c>
       <c r="T32" s="3" t="n">
-        <v>45498</v>
+        <v>44485</v>
       </c>
       <c r="U32" s="3" t="n">
-        <v>45498</v>
+        <v>44487</v>
       </c>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
+      <c r="X32" t="n">
+        <v>5105671036</v>
+      </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>944</v>
+        <v>1205</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>CHATA SARIMON (DESGUACE)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GO/30</t>
+          <t>GO/17</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>GO/30-221-EA</t>
+          <t>GO/17-221-TI</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5012482</t>
+          <t>5004991</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ESFUERZO ADICIONAL</t>
+          <t>TRABAJOS INICIALES</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3488,11 +3460,11 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Esfuerzo adicional - Cald - 12 al 14/07</t>
+          <t>EXPEDIENTES PARA AUTORIZACIÓN DE DESGUAC</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1728</v>
+        <v>3950</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -3500,44 +3472,44 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>2053201679</v>
+        <v>36133</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>MULTISERVICIOS KYP S.A.C.</t>
+          <t>GAPASH CONSULTORIA INTEGRAL EIRL</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>30015028</v>
+        <v>30007372</v>
       </c>
       <c r="N33" s="3" t="n">
-        <v>45489</v>
+        <v>44526</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>45489</v>
+        <v>44526</v>
       </c>
       <c r="P33" s="3" t="n">
-        <v>45497</v>
+        <v>44526</v>
       </c>
       <c r="Q33" t="n">
-        <v>5060065203</v>
+        <v>5010079653</v>
       </c>
       <c r="R33" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="S33" t="n">
-        <v>1001880773</v>
+        <v>1000728460</v>
       </c>
       <c r="T33" s="3" t="n">
-        <v>45489</v>
+        <v>44526</v>
       </c>
       <c r="U33" s="3" t="n">
-        <v>45497</v>
+        <v>44526</v>
       </c>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="n">
-        <v>5105634907</v>
+        <v>5105712902</v>
       </c>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
@@ -3553,27 +3525,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CHATA FERROLES 3 (DESGUACE)</t>
+          <t>CHATA SARIMON (DESGUACE)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GO/30</t>
+          <t>GO/17</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>GO/30-221-EA</t>
+          <t>GO/17-221-TI</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5012482</t>
+          <t>5004991</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ESFUERZO ADICIONAL</t>
+          <t>TRABAJOS INICIALES</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3583,7 +3555,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Esfuerzo adicional Cald y Sold</t>
+          <t>ESTADIA</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -3598,10 +3570,10 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" s="3" t="n">
-        <v>45489</v>
+        <v>44522</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>45489</v>
+        <v>44561</v>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -3610,10 +3582,10 @@
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" s="3" t="n">
-        <v>45489</v>
+        <v>44522</v>
       </c>
       <c r="U34" s="3" t="n">
-        <v>45497</v>
+        <v>44525</v>
       </c>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
@@ -3626,6 +3598,2883 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>14</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CHATA SARIMON (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>GO/17</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GO/17-221-SD</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>5005100</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>DESMONTAJE DE EQUIPOS</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Desmontaje de Equipos Activos</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>4324</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>2051449525</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>GARCIA Y ASOCIADOS NAVALES S.R.L.</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>30007441</v>
+      </c>
+      <c r="N35" s="3" t="n">
+        <v>44571</v>
+      </c>
+      <c r="O35" s="3" t="n">
+        <v>44571</v>
+      </c>
+      <c r="P35" s="3" t="n">
+        <v>44575</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5010084134</v>
+      </c>
+      <c r="R35" t="n">
+        <v>10</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1000774026</v>
+      </c>
+      <c r="T35" s="3" t="n">
+        <v>44552</v>
+      </c>
+      <c r="U35" s="3" t="n">
+        <v>44552</v>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="n">
+        <v>5105724785</v>
+      </c>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>548</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CHATA SARIMON (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>GO/17</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GO/17-221-SD</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>5006425</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>LIMPIEZA E HIDROLVADO</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Limpieza Casco OV 118 m² (Rasqueteo)</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>177</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>2040319042</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>SERVICIOS METAL MECANICA ARENADO Y</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>30008828</v>
+      </c>
+      <c r="N36" s="3" t="n">
+        <v>44658</v>
+      </c>
+      <c r="O36" s="3" t="n">
+        <v>44658</v>
+      </c>
+      <c r="P36" s="3" t="n">
+        <v>44670</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5010095117</v>
+      </c>
+      <c r="R36" t="n">
+        <v>70</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1000890246</v>
+      </c>
+      <c r="T36" s="3" t="n">
+        <v>44658</v>
+      </c>
+      <c r="U36" s="3" t="n">
+        <v>44658</v>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="n">
+        <v>5105757794</v>
+      </c>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>634</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CHATA SARIMON (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GO/17</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GO/17-221-SD</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>5006600</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ESTRUCTURA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Desguace de CHATA en módulos</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>13070</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>2051449525</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>GARCIA Y ASOCIADOS NAVALES S.R.L.</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>30009003</v>
+      </c>
+      <c r="N37" s="3" t="n">
+        <v>44683</v>
+      </c>
+      <c r="O37" s="3" t="n">
+        <v>44687</v>
+      </c>
+      <c r="P37" s="3" t="n">
+        <v>44690</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5010096344</v>
+      </c>
+      <c r="R37" t="n">
+        <v>40</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1000888339</v>
+      </c>
+      <c r="T37" s="3" t="n">
+        <v>44683</v>
+      </c>
+      <c r="U37" s="3" t="n">
+        <v>44683</v>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="n">
+        <v>5105756356</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>4702.212</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>4562.6</v>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>641</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CHATA SARIMON (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>GO/17</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GO/17-221-SD</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>5006628</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>LIMPIEZA Y ALBAÑILERIA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Remoción de Concreto de Pisos de Cocina</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>546</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>2060671352</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KALEB S.A.C.</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>30009067</v>
+      </c>
+      <c r="N38" s="3" t="n">
+        <v>44691</v>
+      </c>
+      <c r="O38" s="3" t="n">
+        <v>44691</v>
+      </c>
+      <c r="P38" s="3" t="n">
+        <v>44694</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5010097922</v>
+      </c>
+      <c r="R38" t="n">
+        <v>20</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1000899821</v>
+      </c>
+      <c r="T38" s="3" t="n">
+        <v>44691</v>
+      </c>
+      <c r="U38" s="3" t="n">
+        <v>44694</v>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="n">
+        <v>5105760220</v>
+      </c>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>641</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CHATA SARIMON (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>GO/17</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GO/17-221-SD</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>5006628</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>LIMPIEZA Y ALBAÑILERIA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0020</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Limpieza de residuos Oleosos Petróleo</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>210</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>2060671352</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KALEB S.A.C.</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>30009067</v>
+      </c>
+      <c r="N39" s="3" t="n">
+        <v>44691</v>
+      </c>
+      <c r="O39" s="3" t="n">
+        <v>44691</v>
+      </c>
+      <c r="P39" s="3" t="n">
+        <v>44694</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5010097922</v>
+      </c>
+      <c r="R39" t="n">
+        <v>30</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1000899822</v>
+      </c>
+      <c r="T39" s="3" t="n">
+        <v>44691</v>
+      </c>
+      <c r="U39" s="3" t="n">
+        <v>44694</v>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="n">
+        <v>5105760220</v>
+      </c>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CHATA GAVIOTA (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>GO/18</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GO/18-221-TI</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>5004993</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>TRABAJOS INICIALES</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0020</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>EXPEDIENTES PARA AUTORIZACIÓN DE DESGUAC</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>3950</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>36133</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>GAPASH CONSULTORIA INTEGRAL EIRL</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>30007373</v>
+      </c>
+      <c r="N40" s="3" t="n">
+        <v>44526</v>
+      </c>
+      <c r="O40" s="3" t="n">
+        <v>44526</v>
+      </c>
+      <c r="P40" s="3" t="n">
+        <v>44526</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5010079653</v>
+      </c>
+      <c r="R40" t="n">
+        <v>20</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1000728461</v>
+      </c>
+      <c r="T40" s="3" t="n">
+        <v>44526</v>
+      </c>
+      <c r="U40" s="3" t="n">
+        <v>44526</v>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="n">
+        <v>5105712903</v>
+      </c>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CHATA GAVIOTA (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>GO/18</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GO/18-221-TI</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>5004993</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>TRABAJOS INICIALES</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>ESTADIA</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" s="3" t="n">
+        <v>44522</v>
+      </c>
+      <c r="O41" s="3" t="n">
+        <v>44522</v>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" s="3" t="n">
+        <v>44522</v>
+      </c>
+      <c r="U41" s="3" t="n">
+        <v>44522</v>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>15</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CHATA GAVIOTA (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>GO/18</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GO/18-221-SD</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>5004994</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>DESMONTAJE DE EQUIPOS</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0020</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Desmontaje de Equipos Activos</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>4324</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>2044566087</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>LARCAS S.R.L.</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>30007380</v>
+      </c>
+      <c r="N42" s="3" t="n">
+        <v>44571</v>
+      </c>
+      <c r="O42" s="3" t="n">
+        <v>44571</v>
+      </c>
+      <c r="P42" s="3" t="n">
+        <v>44575</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5010084135</v>
+      </c>
+      <c r="R42" t="n">
+        <v>10</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1000774150</v>
+      </c>
+      <c r="T42" s="3" t="n">
+        <v>44552</v>
+      </c>
+      <c r="U42" s="3" t="n">
+        <v>44552</v>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="n">
+        <v>5105724756</v>
+      </c>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CHATA GAVIOTA (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>GO/18</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GO/18-221-SD</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>5004994</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>DESMONTAJE DE EQUIPOS</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Desmontaje Paneles HMI</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>2500</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>2013616710</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>ELECTRONICA NALWS EIRLTDA</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>30007380</v>
+      </c>
+      <c r="N43" s="3" t="n">
+        <v>44522</v>
+      </c>
+      <c r="O43" s="3" t="n">
+        <v>44522</v>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" s="3" t="n">
+        <v>44522</v>
+      </c>
+      <c r="U43" s="3" t="n">
+        <v>44552</v>
+      </c>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>547</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CHATA GAVIOTA (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>GO/18</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GO/18-221-SD</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>5006424</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>LIMPIEZA E HIDROLVADO</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Limpieza Casco OV 130 m² (Rasqueteo)</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>195</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>2051202333</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>BELL SERVICE S.A.C.</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>30008827</v>
+      </c>
+      <c r="N44" s="3" t="n">
+        <v>44658</v>
+      </c>
+      <c r="O44" s="3" t="n">
+        <v>44658</v>
+      </c>
+      <c r="P44" s="3" t="n">
+        <v>44670</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5010095010</v>
+      </c>
+      <c r="R44" t="n">
+        <v>60</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1000877929</v>
+      </c>
+      <c r="T44" s="3" t="n">
+        <v>44658</v>
+      </c>
+      <c r="U44" s="3" t="n">
+        <v>44658</v>
+      </c>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="n">
+        <v>5105756439</v>
+      </c>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>624</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CHATA GAVIOTA (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>GO/18</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GO/18-221-SD</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>5006548</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>TUBERIAS</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Desmontaje 02 Manifold Achique</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>720</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>2054173296</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>SERVICIOS NAVALES PAREDES E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>30008879</v>
+      </c>
+      <c r="N45" s="3" t="n">
+        <v>44522</v>
+      </c>
+      <c r="O45" s="3" t="n">
+        <v>44522</v>
+      </c>
+      <c r="P45" s="3" t="n">
+        <v>44684</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5010096360</v>
+      </c>
+      <c r="R45" t="n">
+        <v>190</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1000890213</v>
+      </c>
+      <c r="T45" s="3" t="n">
+        <v>44673</v>
+      </c>
+      <c r="U45" s="3" t="n">
+        <v>44674</v>
+      </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="n">
+        <v>5105758892</v>
+      </c>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>624</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CHATA GAVIOTA (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>GO/18</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>GO/18-221-SD</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>5006548</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>TUBERIAS</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0020</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Achiq/Manif: 12 Válv Comp Ø 2"</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>612.9</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>2054173296</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>SERVICIOS NAVALES PAREDES E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>30008879</v>
+      </c>
+      <c r="N46" s="3" t="n">
+        <v>44683</v>
+      </c>
+      <c r="O46" s="3" t="n">
+        <v>44687</v>
+      </c>
+      <c r="P46" s="3" t="n">
+        <v>44684</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5010096360</v>
+      </c>
+      <c r="R46" t="n">
+        <v>200</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1000890215</v>
+      </c>
+      <c r="T46" s="3" t="n">
+        <v>44683</v>
+      </c>
+      <c r="U46" s="3" t="n">
+        <v>44683</v>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="n">
+        <v>5105758892</v>
+      </c>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>624</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CHATA GAVIOTA (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>GO/18</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GO/18-221-SD</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>5006548</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>TUBERIAS</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0030</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Achiq/Manif: 02 Válv Comp Ø 3"</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>122.55</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>2054173296</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>SERVICIOS NAVALES PAREDES E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>30008879</v>
+      </c>
+      <c r="N47" s="3" t="n">
+        <v>44683</v>
+      </c>
+      <c r="O47" s="3" t="n">
+        <v>44687</v>
+      </c>
+      <c r="P47" s="3" t="n">
+        <v>44684</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5010096360</v>
+      </c>
+      <c r="R47" t="n">
+        <v>210</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1000890216</v>
+      </c>
+      <c r="T47" s="3" t="n">
+        <v>44683</v>
+      </c>
+      <c r="U47" s="3" t="n">
+        <v>44683</v>
+      </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="n">
+        <v>5105758892</v>
+      </c>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>633</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CHATA GAVIOTA (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>GO/18</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GO/18-221-SD</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>5006601</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>ESTRUCTURA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Desguace de CHATA en módulos</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>10730</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>2044566087</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>LARCAS S.R.L.</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>30009004</v>
+      </c>
+      <c r="N48" s="3" t="n">
+        <v>44522</v>
+      </c>
+      <c r="O48" s="3" t="n">
+        <v>44526</v>
+      </c>
+      <c r="P48" s="3" t="n">
+        <v>44690</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5010096345</v>
+      </c>
+      <c r="R48" t="n">
+        <v>490</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1000890023</v>
+      </c>
+      <c r="T48" s="3" t="n">
+        <v>44683</v>
+      </c>
+      <c r="U48" s="3" t="n">
+        <v>44683</v>
+      </c>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="n">
+        <v>5105757128</v>
+      </c>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>GO/30</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GO/30-221-TI</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>5007785</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>TRABAJOS INICIALES</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0020</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>EXPEDIENTES PARA AUTORIZACIÓN DE DESGUAC</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>4200</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>36133</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>GAPASH CONSULTORIA INTEGRAL EIRL</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>30010241</v>
+      </c>
+      <c r="N49" s="3" t="n">
+        <v>44854</v>
+      </c>
+      <c r="O49" s="3" t="n">
+        <v>44860</v>
+      </c>
+      <c r="P49" s="3" t="n">
+        <v>44861</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5010115646</v>
+      </c>
+      <c r="R49" t="n">
+        <v>10</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1001080528</v>
+      </c>
+      <c r="T49" s="3" t="n">
+        <v>44854</v>
+      </c>
+      <c r="U49" s="3" t="n">
+        <v>44861</v>
+      </c>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="n">
+        <v>5105610380</v>
+      </c>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>GO/30</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GO/30-221-TI</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>5007785</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>TRABAJOS INICIALES</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>ESTADIA</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" s="3" t="n">
+        <v>44882</v>
+      </c>
+      <c r="O50" s="3" t="n">
+        <v>44882</v>
+      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" s="3" t="n">
+        <v>44854</v>
+      </c>
+      <c r="U50" s="3" t="n">
+        <v>44894</v>
+      </c>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>970</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>GO/30</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GO/30-221-SD</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>5012195</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ESTRUCTURA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Desguace de CHATA</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>20800</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>2053201679</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KYP S.A.C.</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>30014791</v>
+      </c>
+      <c r="N51" s="3" t="n">
+        <v>45469</v>
+      </c>
+      <c r="O51" s="3" t="n">
+        <v>45498</v>
+      </c>
+      <c r="P51" s="3" t="n">
+        <v>45498</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5010181011</v>
+      </c>
+      <c r="R51" t="n">
+        <v>10</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1001880770</v>
+      </c>
+      <c r="T51" s="3" t="n">
+        <v>45468</v>
+      </c>
+      <c r="U51" s="3" t="n">
+        <v>45468</v>
+      </c>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="n">
+        <v>5105634461</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>6691.49</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>6591.74</v>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>970</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>GO/30</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>GO/30-221-SD</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>5012196</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>DESMONTAJE DE EQUIPOS</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Desmontaje de equipos activos</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>3200</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>2053201679</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KYP S.A.C.</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>30014792</v>
+      </c>
+      <c r="N52" s="3" t="n">
+        <v>45469</v>
+      </c>
+      <c r="O52" s="3" t="n">
+        <v>45498</v>
+      </c>
+      <c r="P52" s="3" t="n">
+        <v>45498</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5060065203</v>
+      </c>
+      <c r="R52" t="n">
+        <v>10</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1001880771</v>
+      </c>
+      <c r="T52" s="3" t="n">
+        <v>45468</v>
+      </c>
+      <c r="U52" s="3" t="n">
+        <v>45468</v>
+      </c>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="n">
+        <v>5105634907</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>136.96</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>137.22</v>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>882</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>GO/30</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>GO/30-221-SD</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>5012197</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>LIMPIEZA EHIDROLAVADO</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Limpieza de Fondo (Rasqueteo) - 205 m2</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>328</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>2040319042</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>SERVICIOS METAL MECANICA ARENADO Y</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>30014793</v>
+      </c>
+      <c r="N53" s="3" t="n">
+        <v>44883</v>
+      </c>
+      <c r="O53" s="3" t="n">
+        <v>44883</v>
+      </c>
+      <c r="P53" s="3" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5060065044</v>
+      </c>
+      <c r="R53" t="n">
+        <v>10</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1001871495</v>
+      </c>
+      <c r="T53" s="3" t="n">
+        <v>45468</v>
+      </c>
+      <c r="U53" s="3" t="n">
+        <v>45468</v>
+      </c>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="n">
+        <v>5105617715</v>
+      </c>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>882</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>GO/30</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GO/30-221-SD</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>5012197</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>LIMPIEZA EHIDROLAVADO</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0020</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Hidrolavado de O.Viva - 205 m2</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>471.5</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>2040319042</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>SERVICIOS METAL MECANICA ARENADO Y</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>30014793</v>
+      </c>
+      <c r="N54" s="3" t="n">
+        <v>44883</v>
+      </c>
+      <c r="O54" s="3" t="n">
+        <v>44883</v>
+      </c>
+      <c r="P54" s="3" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5060065044</v>
+      </c>
+      <c r="R54" t="n">
+        <v>20</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1001871499</v>
+      </c>
+      <c r="T54" s="3" t="n">
+        <v>45483</v>
+      </c>
+      <c r="U54" s="3" t="n">
+        <v>45483</v>
+      </c>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="n">
+        <v>5105617715</v>
+      </c>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>921</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>GO/30</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GO/30-221-SD</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>5012198</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>LIMPIEZA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0020</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Limp sala de bomba y sala de máquina</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>960.96</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>2060671352</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KALEB S.A.C.</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>30014794</v>
+      </c>
+      <c r="N55" s="3" t="n">
+        <v>45469</v>
+      </c>
+      <c r="O55" s="3" t="n">
+        <v>45484</v>
+      </c>
+      <c r="P55" s="3" t="n">
+        <v>45490</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5010185136</v>
+      </c>
+      <c r="R55" t="n">
+        <v>10</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1001940968</v>
+      </c>
+      <c r="T55" s="3" t="n">
+        <v>45478</v>
+      </c>
+      <c r="U55" s="3" t="n">
+        <v>45478</v>
+      </c>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="n">
+        <v>5105657061</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>52.40000000000001</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>52.40000000000001</v>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>GO/30</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>GO/30-221-SD</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>5012198</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>LIMPIEZA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Limpieza interiores</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>30014794</v>
+      </c>
+      <c r="N56" s="3" t="n">
+        <v>44883</v>
+      </c>
+      <c r="O56" s="3" t="n">
+        <v>44883</v>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" s="3" t="n">
+        <v>45468</v>
+      </c>
+      <c r="U56" s="3" t="n">
+        <v>45468</v>
+      </c>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>974</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>GO/30</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>GO/30-221-TI</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>5012336</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>OTROS SERVICIOS INTERNOS</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Servicio de grúa - JHON DAVIS</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>18425</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>2053203078</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>TRANSGRUAS JHONDAVIS S.A.C.</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>30014932</v>
+      </c>
+      <c r="N57" s="3" t="n">
+        <v>45497</v>
+      </c>
+      <c r="O57" s="3" t="n">
+        <v>45497</v>
+      </c>
+      <c r="P57" s="3" t="n">
+        <v>45499</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5010179393</v>
+      </c>
+      <c r="R57" t="n">
+        <v>20</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1001868559</v>
+      </c>
+      <c r="T57" s="3" t="n">
+        <v>45498</v>
+      </c>
+      <c r="U57" s="3" t="n">
+        <v>45498</v>
+      </c>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="n">
+        <v>5105622454</v>
+      </c>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>963</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>GO/30</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GO/30-221-TI</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>5012336</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>OTROS SERVICIOS INTERNOS</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0050</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Limpieza de Carril - 17/07 al 20/07</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>171</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>2051778677</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>MANNA S.A.C.</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>30014932</v>
+      </c>
+      <c r="N58" s="3" t="n">
+        <v>45497</v>
+      </c>
+      <c r="O58" s="3" t="n">
+        <v>45497</v>
+      </c>
+      <c r="P58" s="3" t="n">
+        <v>45498</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5010179383</v>
+      </c>
+      <c r="R58" t="n">
+        <v>20</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1001859050</v>
+      </c>
+      <c r="T58" s="3" t="n">
+        <v>45497</v>
+      </c>
+      <c r="U58" s="3" t="n">
+        <v>45497</v>
+      </c>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="n">
+        <v>5105618053</v>
+      </c>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>957</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>GO/30</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GO/30-221-TI</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>5012336</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>OTROS SERVICIOS INTERNOS</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0030</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Limpieza de Carril - 08/07 al 13/07</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>342</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>2060671352</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KALEB S.A.C.</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>30014932</v>
+      </c>
+      <c r="N59" s="3" t="n">
+        <v>45492</v>
+      </c>
+      <c r="O59" s="3" t="n">
+        <v>45492</v>
+      </c>
+      <c r="P59" s="3" t="n">
+        <v>45498</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5010180428</v>
+      </c>
+      <c r="R59" t="n">
+        <v>170</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1001872511</v>
+      </c>
+      <c r="T59" s="3" t="n">
+        <v>45492</v>
+      </c>
+      <c r="U59" s="3" t="n">
+        <v>45492</v>
+      </c>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="n">
+        <v>5105642149</v>
+      </c>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>957</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>GO/30</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GO/30-221-TI</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>5012336</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>OTROS SERVICIOS INTERNOS</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0040</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Limpieza de Carril - 15/07 al 20/07</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>342</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>2060671352</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KALEB S.A.C.</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>30014932</v>
+      </c>
+      <c r="N60" s="3" t="n">
+        <v>45497</v>
+      </c>
+      <c r="O60" s="3" t="n">
+        <v>45497</v>
+      </c>
+      <c r="P60" s="3" t="n">
+        <v>45498</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5010180428</v>
+      </c>
+      <c r="R60" t="n">
+        <v>180</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1001872512</v>
+      </c>
+      <c r="T60" s="3" t="n">
+        <v>45497</v>
+      </c>
+      <c r="U60" s="3" t="n">
+        <v>45497</v>
+      </c>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="n">
+        <v>5105642149</v>
+      </c>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>922</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>GO/30</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GO/30-221-TI</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>5012336</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>OTROS SERVICIOS INTERNOS</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0020</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Limpieza de Carril - 01/07 al 06/07</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>370.5</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>2060671352</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KALEB S.A.C.</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>30014932</v>
+      </c>
+      <c r="N61" s="3" t="n">
+        <v>45485</v>
+      </c>
+      <c r="O61" s="3" t="n">
+        <v>45485</v>
+      </c>
+      <c r="P61" s="3" t="n">
+        <v>45490</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5010180428</v>
+      </c>
+      <c r="R61" t="n">
+        <v>160</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1001872509</v>
+      </c>
+      <c r="T61" s="3" t="n">
+        <v>45485</v>
+      </c>
+      <c r="U61" s="3" t="n">
+        <v>45485</v>
+      </c>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="n">
+        <v>5105642149</v>
+      </c>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>881</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>GO/30</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>GO/30-221-TI</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>5012336</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>OTROS SERVICIOS INTERNOS</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Limpieza de Carril - 25/06 al 28/06</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>288</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>2060671352</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KALEB S.A.C.</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>30014932</v>
+      </c>
+      <c r="N62" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="O62" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="P62" s="3" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5010179385</v>
+      </c>
+      <c r="R62" t="n">
+        <v>60</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1001859056</v>
+      </c>
+      <c r="T62" s="3" t="n">
+        <v>45477</v>
+      </c>
+      <c r="U62" s="3" t="n">
+        <v>45483</v>
+      </c>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="n">
+        <v>5105642460</v>
+      </c>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>GO/30</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GO/30-221-TI</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>5012336</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>OTROS SERVICIOS INTERNOS</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0060</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>SERVICIO DE GRUA</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>30014932</v>
+      </c>
+      <c r="N63" s="3" t="n">
+        <v>45498</v>
+      </c>
+      <c r="O63" s="3" t="n">
+        <v>45498</v>
+      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" s="3" t="n">
+        <v>45498</v>
+      </c>
+      <c r="U63" s="3" t="n">
+        <v>45498</v>
+      </c>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>944</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>GO/30</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GO/30-221-EA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>5012482</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>ESFUERZO ADICIONAL</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0020</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Esfuerzo adicional - Cald - 12 al 14/07</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1728</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>2053201679</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KYP S.A.C.</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>30015028</v>
+      </c>
+      <c r="N64" s="3" t="n">
+        <v>45489</v>
+      </c>
+      <c r="O64" s="3" t="n">
+        <v>45489</v>
+      </c>
+      <c r="P64" s="3" t="n">
+        <v>45497</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5060065203</v>
+      </c>
+      <c r="R64" t="n">
+        <v>20</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1001880773</v>
+      </c>
+      <c r="T64" s="3" t="n">
+        <v>45489</v>
+      </c>
+      <c r="U64" s="3" t="n">
+        <v>45497</v>
+      </c>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="n">
+        <v>5105634907</v>
+      </c>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CHATA FERROLES 3 (DESGUACE)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>GO/30</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GO/30-221-EA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>5012482</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>ESFUERZO ADICIONAL</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Esfuerzo adicional Cald y Sold</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" s="3" t="n">
+        <v>45489</v>
+      </c>
+      <c r="O65" s="3" t="n">
+        <v>45489</v>
+      </c>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" s="3" t="n">
+        <v>45489</v>
+      </c>
+      <c r="U65" s="3" t="n">
+        <v>45497</v>
+      </c>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
